--- a/KOR_JHJ_F_20_SM-N960N/KOR_JHJ_F_20_SM-N960N.xlsx
+++ b/KOR_JHJ_F_20_SM-N960N/KOR_JHJ_F_20_SM-N960N.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\20200705_Flitto_Rantacar_samples\KOR_JHJ_F_20_SM-N960N\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\최종납품 엑셀 파일명 기재\mapping\KOR_JHJ_(F)_(20)_SM-N960N O\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCAFA15-92A3-4542-90D3-28A8E225C410}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530571FD-260B-4015-B547-72DAD3980E82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{BED6DAF0-BE79-4CA4-8A59-6DBFCA9EB8BA}"/>
   </bookViews>
@@ -4785,7 +4785,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4816,15 +4816,6 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -4835,11 +4826,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4862,47 +4854,27 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -5217,43 +5189,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A87217-7D00-4B5E-938B-2FB89BEF022A}">
   <dimension ref="A1:F654"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" workbookViewId="0">
-      <selection activeCell="G338" sqref="G338"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="7.625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="37.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="49.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="43.125" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.75" style="4"/>
+    <col min="1" max="16384" width="8.796875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>1553</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1554</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1555</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>1556</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>1557</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5238,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5293,7 +5258,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -5313,7 +5278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -5333,7 +5298,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -5353,7 +5318,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -5373,7 +5338,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
@@ -5393,7 +5358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -5413,7 +5378,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
@@ -5433,7 +5398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -5453,7 +5418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
@@ -5473,7 +5438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -5493,7 +5458,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -5513,7 +5478,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
@@ -5533,7 +5498,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -5553,7 +5518,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -5573,7 +5538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
@@ -5593,7 +5558,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
@@ -5613,7 +5578,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -5633,7 +5598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5653,7 +5618,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>0</v>
       </c>
@@ -5673,7 +5638,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -5693,7 +5658,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
@@ -5713,7 +5678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -5733,7 +5698,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +5718,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +5738,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5758,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -5813,7 +5778,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -5833,7 +5798,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
@@ -5853,7 +5818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
         <v>0</v>
       </c>
@@ -5873,7 +5838,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
         <v>0</v>
       </c>
@@ -5893,7 +5858,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
@@ -5913,7 +5878,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>0</v>
       </c>
@@ -5933,7 +5898,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>0</v>
       </c>
@@ -5953,7 +5918,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -5973,7 +5938,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>0</v>
       </c>
@@ -5993,7 +5958,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
         <v>0</v>
       </c>
@@ -6013,7 +5978,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -6033,7 +5998,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
         <v>0</v>
       </c>
@@ -6053,7 +6018,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -6073,7 +6038,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
         <v>0</v>
       </c>
@@ -6093,7 +6058,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>0</v>
       </c>
@@ -6113,7 +6078,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -6133,7 +6098,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
         <v>0</v>
       </c>
@@ -6153,7 +6118,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>0</v>
       </c>
@@ -6173,7 +6138,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>0</v>
       </c>
@@ -6193,7 +6158,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
@@ -6213,7 +6178,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>0</v>
       </c>
@@ -6233,7 +6198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -6253,7 +6218,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
         <v>0</v>
       </c>
@@ -6273,7 +6238,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -6293,7 +6258,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>0</v>
       </c>
@@ -6313,7 +6278,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -6333,7 +6298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>0</v>
       </c>
@@ -6353,7 +6318,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>0</v>
       </c>
@@ -6373,7 +6338,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -6393,7 +6358,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
         <v>0</v>
       </c>
@@ -6413,7 +6378,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -6433,7 +6398,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
         <v>0</v>
       </c>
@@ -6453,7 +6418,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -6473,7 +6438,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>0</v>
       </c>
@@ -6493,7 +6458,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -6513,7 +6478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6498,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
@@ -6553,7 +6518,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
@@ -6573,7 +6538,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>0</v>
       </c>
@@ -6593,7 +6558,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6578,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>0</v>
       </c>
@@ -6633,7 +6598,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>0</v>
       </c>
@@ -6653,7 +6618,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -6673,7 +6638,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6658,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
@@ -6713,7 +6678,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>0</v>
       </c>
@@ -6733,7 +6698,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6718,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6773,7 +6738,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6793,7 +6758,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6813,7 +6778,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6833,7 +6798,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6853,7 +6818,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6873,7 +6838,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6893,7 +6858,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6913,7 +6878,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6933,7 +6898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6953,7 +6918,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6973,7 +6938,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
         <v>1561</v>
       </c>
@@ -6993,7 +6958,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7013,7 +6978,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7033,7 +6998,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7053,7 +7018,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7073,7 +7038,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7093,7 +7058,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7113,7 +7078,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7133,7 +7098,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7153,7 +7118,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7173,7 +7138,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7193,7 +7158,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7213,7 +7178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7233,7 +7198,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7253,7 +7218,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7273,7 +7238,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7293,7 +7258,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7313,7 +7278,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7333,7 +7298,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A106" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7353,7 +7318,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A107" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7373,7 +7338,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7393,7 +7358,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7413,7 +7378,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7433,7 +7398,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7453,7 +7418,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7473,7 +7438,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7493,7 +7458,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7513,7 +7478,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7533,7 +7498,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7553,7 +7518,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7573,7 +7538,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7593,7 +7558,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7613,7 +7578,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7633,7 +7598,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7653,7 +7618,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7673,7 +7638,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7693,7 +7658,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7713,7 +7678,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7733,7 +7698,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7753,7 +7718,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7773,7 +7738,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7793,7 +7758,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7813,7 +7778,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7833,7 +7798,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="131" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7853,7 +7818,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="132" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7873,7 +7838,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="133" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7893,7 +7858,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="134" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7913,7 +7878,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7933,7 +7898,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7953,7 +7918,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="137" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7973,7 +7938,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
         <v>1561</v>
       </c>
@@ -7993,7 +7958,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="139" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8013,7 +7978,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="140" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8033,7 +7998,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="141" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8053,7 +8018,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="142" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8073,7 +8038,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="143" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8093,7 +8058,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="144" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8113,7 +8078,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="145" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8133,7 +8098,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="146" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8153,7 +8118,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8173,7 +8138,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="148" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8193,7 +8158,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="149" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
         <v>1561</v>
       </c>
@@ -8213,7 +8178,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A150" s="2" t="s">
         <v>365</v>
       </c>
@@ -8233,7 +8198,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A151" s="2" t="s">
         <v>365</v>
       </c>
@@ -8253,7 +8218,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A152" s="2" t="s">
         <v>365</v>
       </c>
@@ -8273,7 +8238,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A153" s="2" t="s">
         <v>365</v>
       </c>
@@ -8293,7 +8258,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
         <v>365</v>
       </c>
@@ -8313,7 +8278,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A155" s="2" t="s">
         <v>365</v>
       </c>
@@ -8333,7 +8298,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A156" s="2" t="s">
         <v>365</v>
       </c>
@@ -8353,7 +8318,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A157" s="2" t="s">
         <v>365</v>
       </c>
@@ -8373,7 +8338,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A158" s="2" t="s">
         <v>365</v>
       </c>
@@ -8393,7 +8358,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A159" s="2" t="s">
         <v>365</v>
       </c>
@@ -8413,7 +8378,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A160" s="2" t="s">
         <v>365</v>
       </c>
@@ -8433,7 +8398,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A161" s="2" t="s">
         <v>365</v>
       </c>
@@ -8453,7 +8418,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A162" s="2" t="s">
         <v>365</v>
       </c>
@@ -8473,7 +8438,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A163" s="2" t="s">
         <v>365</v>
       </c>
@@ -8493,7 +8458,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A164" s="2" t="s">
         <v>365</v>
       </c>
@@ -8513,7 +8478,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A165" s="2" t="s">
         <v>365</v>
       </c>
@@ -8533,7 +8498,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A166" s="2" t="s">
         <v>365</v>
       </c>
@@ -8553,7 +8518,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A167" s="2" t="s">
         <v>365</v>
       </c>
@@ -8573,7 +8538,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A168" s="2" t="s">
         <v>365</v>
       </c>
@@ -8593,7 +8558,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A169" s="2" t="s">
         <v>365</v>
       </c>
@@ -8613,7 +8578,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A170" s="2" t="s">
         <v>365</v>
       </c>
@@ -8633,7 +8598,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A171" s="2" t="s">
         <v>365</v>
       </c>
@@ -8653,7 +8618,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A172" s="2" t="s">
         <v>365</v>
       </c>
@@ -8673,7 +8638,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A173" s="2" t="s">
         <v>365</v>
       </c>
@@ -8693,7 +8658,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A174" s="2" t="s">
         <v>365</v>
       </c>
@@ -8713,7 +8678,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A175" s="2" t="s">
         <v>365</v>
       </c>
@@ -8733,7 +8698,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A176" s="2" t="s">
         <v>365</v>
       </c>
@@ -8753,7 +8718,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A177" s="2" t="s">
         <v>419</v>
       </c>
@@ -8773,7 +8738,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="178" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A178" s="2" t="s">
         <v>419</v>
       </c>
@@ -8793,7 +8758,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="179" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A179" s="2" t="s">
         <v>419</v>
       </c>
@@ -8813,7 +8778,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A180" s="2" t="s">
         <v>419</v>
       </c>
@@ -8833,7 +8798,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A181" s="2" t="s">
         <v>419</v>
       </c>
@@ -8853,7 +8818,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A182" s="2" t="s">
         <v>419</v>
       </c>
@@ -8873,7 +8838,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A183" s="2" t="s">
         <v>419</v>
       </c>
@@ -8893,7 +8858,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A184" s="2" t="s">
         <v>419</v>
       </c>
@@ -8913,7 +8878,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A185" s="2" t="s">
         <v>419</v>
       </c>
@@ -8933,7 +8898,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A186" s="2" t="s">
         <v>419</v>
       </c>
@@ -8953,7 +8918,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A187" s="2" t="s">
         <v>419</v>
       </c>
@@ -8973,7 +8938,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A188" s="2" t="s">
         <v>419</v>
       </c>
@@ -8993,7 +8958,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="189" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A189" s="2" t="s">
         <v>419</v>
       </c>
@@ -9013,7 +8978,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="190" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A190" s="2" t="s">
         <v>419</v>
       </c>
@@ -9033,7 +8998,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A191" s="2" t="s">
         <v>419</v>
       </c>
@@ -9053,7 +9018,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A192" s="2" t="s">
         <v>419</v>
       </c>
@@ -9073,7 +9038,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A193" s="2" t="s">
         <v>419</v>
       </c>
@@ -9093,7 +9058,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A194" s="2" t="s">
         <v>419</v>
       </c>
@@ -9113,7 +9078,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A195" s="2" t="s">
         <v>419</v>
       </c>
@@ -9133,7 +9098,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A196" s="2" t="s">
         <v>419</v>
       </c>
@@ -9153,7 +9118,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="197" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A197" s="2" t="s">
         <v>419</v>
       </c>
@@ -9173,7 +9138,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="198" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A198" s="2" t="s">
         <v>419</v>
       </c>
@@ -9193,7 +9158,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="199" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A199" s="2" t="s">
         <v>419</v>
       </c>
@@ -9213,7 +9178,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A200" s="2" t="s">
         <v>419</v>
       </c>
@@ -9233,7 +9198,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A201" s="2" t="s">
         <v>419</v>
       </c>
@@ -9253,7 +9218,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A202" s="2" t="s">
         <v>419</v>
       </c>
@@ -9273,7 +9238,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A203" s="2" t="s">
         <v>419</v>
       </c>
@@ -9293,7 +9258,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A204" s="2" t="s">
         <v>419</v>
       </c>
@@ -9313,7 +9278,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A205" s="2" t="s">
         <v>419</v>
       </c>
@@ -9333,7 +9298,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A206" s="2" t="s">
         <v>419</v>
       </c>
@@ -9353,7 +9318,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A207" s="2" t="s">
         <v>419</v>
       </c>
@@ -9373,7 +9338,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A208" s="2" t="s">
         <v>419</v>
       </c>
@@ -9393,7 +9358,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A209" s="2" t="s">
         <v>419</v>
       </c>
@@ -9413,7 +9378,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A210" s="2" t="s">
         <v>419</v>
       </c>
@@ -9433,7 +9398,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A211" s="2" t="s">
         <v>419</v>
       </c>
@@ -9453,7 +9418,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A212" s="2" t="s">
         <v>419</v>
       </c>
@@ -9473,7 +9438,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A213" s="2" t="s">
         <v>419</v>
       </c>
@@ -9493,7 +9458,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="214" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A214" s="2" t="s">
         <v>419</v>
       </c>
@@ -9513,7 +9478,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A215" s="2" t="s">
         <v>419</v>
       </c>
@@ -9533,7 +9498,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A216" s="2" t="s">
         <v>419</v>
       </c>
@@ -9553,7 +9518,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A217" s="2" t="s">
         <v>419</v>
       </c>
@@ -9573,7 +9538,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A218" s="2" t="s">
         <v>419</v>
       </c>
@@ -9593,7 +9558,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A219" s="2" t="s">
         <v>419</v>
       </c>
@@ -9613,7 +9578,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A220" s="2" t="s">
         <v>419</v>
       </c>
@@ -9633,7 +9598,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A221" s="2" t="s">
         <v>419</v>
       </c>
@@ -9653,7 +9618,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A222" s="2" t="s">
         <v>419</v>
       </c>
@@ -9673,7 +9638,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A223" s="2" t="s">
         <v>419</v>
       </c>
@@ -9693,7 +9658,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A224" s="2" t="s">
         <v>419</v>
       </c>
@@ -9713,7 +9678,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A225" s="2" t="s">
         <v>419</v>
       </c>
@@ -9733,7 +9698,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A226" s="2" t="s">
         <v>419</v>
       </c>
@@ -9753,7 +9718,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="227" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A227" s="2" t="s">
         <v>419</v>
       </c>
@@ -9773,7 +9738,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="228" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A228" s="2" t="s">
         <v>419</v>
       </c>
@@ -9793,7 +9758,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A229" s="2" t="s">
         <v>419</v>
       </c>
@@ -9813,7 +9778,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A230" s="2" t="s">
         <v>419</v>
       </c>
@@ -9833,7 +9798,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A231" s="2" t="s">
         <v>419</v>
       </c>
@@ -9853,7 +9818,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A232" s="2" t="s">
         <v>419</v>
       </c>
@@ -9873,7 +9838,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A233" s="2" t="s">
         <v>419</v>
       </c>
@@ -9893,7 +9858,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A234" s="2" t="s">
         <v>419</v>
       </c>
@@ -9913,7 +9878,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A235" s="2" t="s">
         <v>419</v>
       </c>
@@ -9933,7 +9898,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A236" s="2" t="s">
         <v>419</v>
       </c>
@@ -9953,7 +9918,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A237" s="2" t="s">
         <v>419</v>
       </c>
@@ -9973,7 +9938,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A238" s="2" t="s">
         <v>419</v>
       </c>
@@ -9993,7 +9958,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A239" s="2" t="s">
         <v>419</v>
       </c>
@@ -10013,7 +9978,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A240" s="2" t="s">
         <v>419</v>
       </c>
@@ -10033,7 +9998,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A241" s="2" t="s">
         <v>419</v>
       </c>
@@ -10053,7 +10018,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A242" s="2" t="s">
         <v>419</v>
       </c>
@@ -10073,7 +10038,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A243" s="2" t="s">
         <v>419</v>
       </c>
@@ -10093,7 +10058,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A244" s="2" t="s">
         <v>419</v>
       </c>
@@ -10113,7 +10078,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A245" s="2" t="s">
         <v>419</v>
       </c>
@@ -10133,7 +10098,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A246" s="2" t="s">
         <v>419</v>
       </c>
@@ -10153,7 +10118,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A247" s="2" t="s">
         <v>419</v>
       </c>
@@ -10173,7 +10138,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A248" s="2" t="s">
         <v>419</v>
       </c>
@@ -10193,7 +10158,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A249" s="2" t="s">
         <v>419</v>
       </c>
@@ -10213,7 +10178,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A250" s="2" t="s">
         <v>419</v>
       </c>
@@ -10233,7 +10198,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A251" s="2" t="s">
         <v>419</v>
       </c>
@@ -10253,7 +10218,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A252" s="2" t="s">
         <v>419</v>
       </c>
@@ -10273,7 +10238,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A253" s="2" t="s">
         <v>419</v>
       </c>
@@ -10293,7 +10258,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A254" s="2" t="s">
         <v>419</v>
       </c>
@@ -10313,7 +10278,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A255" s="2" t="s">
         <v>419</v>
       </c>
@@ -10333,7 +10298,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A256" s="2" t="s">
         <v>419</v>
       </c>
@@ -10353,7 +10318,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A257" s="2" t="s">
         <v>419</v>
       </c>
@@ -10373,7 +10338,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A258" s="2" t="s">
         <v>419</v>
       </c>
@@ -10393,7 +10358,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A259" s="2" t="s">
         <v>419</v>
       </c>
@@ -10413,7 +10378,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A260" s="2" t="s">
         <v>419</v>
       </c>
@@ -10433,7 +10398,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A261" s="2" t="s">
         <v>419</v>
       </c>
@@ -10453,7 +10418,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A262" s="2" t="s">
         <v>419</v>
       </c>
@@ -10473,7 +10438,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A263" s="2" t="s">
         <v>419</v>
       </c>
@@ -10493,7 +10458,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A264" s="2" t="s">
         <v>419</v>
       </c>
@@ -10513,7 +10478,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A265" s="2" t="s">
         <v>419</v>
       </c>
@@ -10533,7 +10498,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A266" s="2" t="s">
         <v>419</v>
       </c>
@@ -10553,7 +10518,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A267" s="2" t="s">
         <v>419</v>
       </c>
@@ -10573,7 +10538,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A268" s="2" t="s">
         <v>419</v>
       </c>
@@ -10593,7 +10558,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="269" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
         <v>625</v>
       </c>
@@ -10613,7 +10578,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="270" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
         <v>625</v>
       </c>
@@ -10633,7 +10598,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="271" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
         <v>625</v>
       </c>
@@ -10653,7 +10618,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="272" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
         <v>625</v>
       </c>
@@ -10673,7 +10638,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="273" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
         <v>625</v>
       </c>
@@ -10693,7 +10658,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="274" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
         <v>625</v>
       </c>
@@ -10713,7 +10678,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="275" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
         <v>625</v>
       </c>
@@ -10733,7 +10698,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="276" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
         <v>625</v>
       </c>
@@ -10753,7 +10718,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="277" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
         <v>625</v>
       </c>
@@ -10773,7 +10738,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="278" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
         <v>625</v>
       </c>
@@ -10793,7 +10758,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
         <v>625</v>
       </c>
@@ -10813,7 +10778,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="280" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
         <v>625</v>
       </c>
@@ -10833,7 +10798,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="281" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
         <v>625</v>
       </c>
@@ -10853,7 +10818,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="282" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
         <v>625</v>
       </c>
@@ -10873,7 +10838,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="283" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
         <v>625</v>
       </c>
@@ -10893,7 +10858,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="284" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
         <v>625</v>
       </c>
@@ -10913,7 +10878,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="285" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
         <v>625</v>
       </c>
@@ -10933,7 +10898,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="286" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
         <v>625</v>
       </c>
@@ -10953,7 +10918,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="287" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
         <v>625</v>
       </c>
@@ -10973,7 +10938,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="288" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
         <v>625</v>
       </c>
@@ -10993,7 +10958,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="289" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
         <v>625</v>
       </c>
@@ -11013,7 +10978,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="290" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
         <v>625</v>
       </c>
@@ -11033,7 +10998,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="291" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
         <v>625</v>
       </c>
@@ -11053,7 +11018,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="292" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
         <v>625</v>
       </c>
@@ -11073,7 +11038,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="293" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
         <v>625</v>
       </c>
@@ -11093,7 +11058,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="294" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
         <v>625</v>
       </c>
@@ -11113,7 +11078,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="295" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
         <v>625</v>
       </c>
@@ -11133,7 +11098,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="296" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
         <v>625</v>
       </c>
@@ -11153,7 +11118,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="297" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
         <v>625</v>
       </c>
@@ -11173,7 +11138,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="298" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
         <v>625</v>
       </c>
@@ -11193,7 +11158,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="299" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
         <v>625</v>
       </c>
@@ -11213,7 +11178,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
         <v>625</v>
       </c>
@@ -11233,7 +11198,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="301" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
         <v>625</v>
       </c>
@@ -11253,7 +11218,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
         <v>625</v>
       </c>
@@ -11273,7 +11238,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="303" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
         <v>625</v>
       </c>
@@ -11293,7 +11258,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="304" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
         <v>625</v>
       </c>
@@ -11313,7 +11278,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="305" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
         <v>625</v>
       </c>
@@ -11333,7 +11298,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="306" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
         <v>625</v>
       </c>
@@ -11353,7 +11318,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="307" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
         <v>625</v>
       </c>
@@ -11373,7 +11338,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="308" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
         <v>625</v>
       </c>
@@ -11393,7 +11358,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="309" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
         <v>625</v>
       </c>
@@ -11413,7 +11378,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="310" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
         <v>625</v>
       </c>
@@ -11433,7 +11398,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
         <v>625</v>
       </c>
@@ -11453,7 +11418,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="312" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
         <v>625</v>
       </c>
@@ -11473,7 +11438,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="313" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
         <v>625</v>
       </c>
@@ -11493,7 +11458,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="314" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
         <v>625</v>
       </c>
@@ -11513,7 +11478,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="315" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
         <v>625</v>
       </c>
@@ -11533,7 +11498,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="316" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
         <v>625</v>
       </c>
@@ -11553,7 +11518,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="317" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
         <v>625</v>
       </c>
@@ -11573,7 +11538,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="318" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
         <v>625</v>
       </c>
@@ -11593,7 +11558,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="319" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
         <v>625</v>
       </c>
@@ -11613,7 +11578,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="320" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
         <v>625</v>
       </c>
@@ -11633,7 +11598,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="321" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
         <v>625</v>
       </c>
@@ -11653,7 +11618,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="322" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
         <v>625</v>
       </c>
@@ -11673,7 +11638,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="323" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
         <v>625</v>
       </c>
@@ -11693,7 +11658,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="324" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
         <v>625</v>
       </c>
@@ -11713,7 +11678,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="325" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
         <v>625</v>
       </c>
@@ -11733,7 +11698,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="326" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
         <v>625</v>
       </c>
@@ -11753,7 +11718,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="327" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
         <v>625</v>
       </c>
@@ -11773,7 +11738,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="328" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
         <v>625</v>
       </c>
@@ -11793,7 +11758,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="329" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
         <v>625</v>
       </c>
@@ -11813,7 +11778,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="330" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
         <v>625</v>
       </c>
@@ -11833,7 +11798,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="331" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
         <v>625</v>
       </c>
@@ -11853,7 +11818,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="332" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
         <v>625</v>
       </c>
@@ -11873,7 +11838,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="333" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
         <v>625</v>
       </c>
@@ -11893,7 +11858,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="334" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
         <v>625</v>
       </c>
@@ -11913,7 +11878,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="335" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
         <v>625</v>
       </c>
@@ -11933,7 +11898,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="336" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
         <v>625</v>
       </c>
@@ -11953,7 +11918,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="337" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
         <v>625</v>
       </c>
@@ -11973,7 +11938,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="338" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
         <v>625</v>
       </c>
@@ -11993,7 +11958,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="339" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
         <v>625</v>
       </c>
@@ -12013,7 +11978,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="340" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
         <v>625</v>
       </c>
@@ -12033,7 +11998,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
         <v>625</v>
       </c>
@@ -12053,7 +12018,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="342" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
         <v>625</v>
       </c>
@@ -12073,7 +12038,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="343" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
         <v>625</v>
       </c>
@@ -12093,7 +12058,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="344" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
         <v>625</v>
       </c>
@@ -12113,7 +12078,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="345" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
         <v>625</v>
       </c>
@@ -12133,7 +12098,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="346" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
         <v>625</v>
       </c>
@@ -12153,7 +12118,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="347" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
         <v>625</v>
       </c>
@@ -12173,7 +12138,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="348" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
         <v>625</v>
       </c>
@@ -12193,7 +12158,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="349" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
         <v>818</v>
       </c>
@@ -12213,7 +12178,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="350" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
         <v>818</v>
       </c>
@@ -12233,7 +12198,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="351" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
         <v>818</v>
       </c>
@@ -12253,7 +12218,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="352" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
         <v>818</v>
       </c>
@@ -12273,7 +12238,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="353" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
         <v>818</v>
       </c>
@@ -12293,7 +12258,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="354" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
         <v>818</v>
       </c>
@@ -12313,7 +12278,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="355" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
         <v>818</v>
       </c>
@@ -12333,7 +12298,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="356" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
         <v>818</v>
       </c>
@@ -12353,7 +12318,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
         <v>818</v>
       </c>
@@ -12373,7 +12338,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="358" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
         <v>818</v>
       </c>
@@ -12393,7 +12358,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="359" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
         <v>818</v>
       </c>
@@ -12413,7 +12378,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="360" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
         <v>818</v>
       </c>
@@ -12433,7 +12398,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="361" spans="1:6" s="1" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
         <v>818</v>
       </c>
@@ -12453,43 +12418,43 @@
         <v>842</v>
       </c>
     </row>
-    <row r="362" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="5" t="s">
+    <row r="362" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A362" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B362" s="5" t="s">
+      <c r="B362" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C362" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D362" s="5" t="s">
+      <c r="C362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="E362" s="5" t="s">
+      <c r="E362" s="1" t="s">
         <v>844</v>
       </c>
-      <c r="F362" s="5"/>
-    </row>
-    <row r="363" spans="1:6" s="1" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="5" t="s">
+      <c r="F362" s="3"/>
+    </row>
+    <row r="363" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A363" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B363" s="5" t="s">
+      <c r="B363" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C363" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D363" s="5" t="s">
+      <c r="C363" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D363" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E363" s="5" t="s">
+      <c r="E363" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F363" s="5"/>
-    </row>
-    <row r="364" spans="1:6" s="1" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="F363" s="3"/>
+    </row>
+    <row r="364" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
         <v>818</v>
       </c>
@@ -12509,7 +12474,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="365" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
         <v>818</v>
       </c>
@@ -12529,7 +12494,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="366" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
         <v>818</v>
       </c>
@@ -12549,7 +12514,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="367" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
         <v>818</v>
       </c>
@@ -12569,7 +12534,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="368" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
         <v>818</v>
       </c>
@@ -12589,7 +12554,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="369" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
         <v>818</v>
       </c>
@@ -12609,7 +12574,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="370" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
         <v>818</v>
       </c>
@@ -12629,7 +12594,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="371" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
         <v>818</v>
       </c>
@@ -12649,7 +12614,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="372" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
         <v>818</v>
       </c>
@@ -12669,7 +12634,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="373" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
         <v>818</v>
       </c>
@@ -12689,7 +12654,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="374" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
         <v>818</v>
       </c>
@@ -12709,7 +12674,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="375" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
         <v>818</v>
       </c>
@@ -12729,7 +12694,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="376" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
         <v>818</v>
       </c>
@@ -12749,7 +12714,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="377" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
         <v>818</v>
       </c>
@@ -12769,7 +12734,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="378" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
         <v>818</v>
       </c>
@@ -12789,7 +12754,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="379" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
         <v>818</v>
       </c>
@@ -12809,7 +12774,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="380" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
         <v>818</v>
       </c>
@@ -12829,7 +12794,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="381" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
         <v>818</v>
       </c>
@@ -12849,7 +12814,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="382" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
         <v>818</v>
       </c>
@@ -12869,7 +12834,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="383" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
         <v>818</v>
       </c>
@@ -12889,7 +12854,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="384" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
         <v>818</v>
       </c>
@@ -12909,7 +12874,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="385" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
         <v>818</v>
       </c>
@@ -12929,7 +12894,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="386" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
         <v>818</v>
       </c>
@@ -12949,7 +12914,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="387" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
         <v>818</v>
       </c>
@@ -12969,7 +12934,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="388" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
         <v>818</v>
       </c>
@@ -12989,7 +12954,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
         <v>818</v>
       </c>
@@ -13009,7 +12974,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="390" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
         <v>818</v>
       </c>
@@ -13029,7 +12994,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="391" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
         <v>818</v>
       </c>
@@ -13049,7 +13014,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="392" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
         <v>818</v>
       </c>
@@ -13069,7 +13034,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="393" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
         <v>818</v>
       </c>
@@ -13089,7 +13054,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="394" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
         <v>818</v>
       </c>
@@ -13109,7 +13074,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
         <v>818</v>
       </c>
@@ -13129,7 +13094,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="396" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A396" s="1" t="s">
         <v>818</v>
       </c>
@@ -13149,7 +13114,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="397" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A397" s="1" t="s">
         <v>818</v>
       </c>
@@ -13169,7 +13134,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="398" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
         <v>818</v>
       </c>
@@ -13189,7 +13154,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="399" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A399" s="1" t="s">
         <v>818</v>
       </c>
@@ -13209,7 +13174,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A400" s="1" t="s">
         <v>818</v>
       </c>
@@ -13229,7 +13194,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="401" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
         <v>818</v>
       </c>
@@ -13249,7 +13214,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="402" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A402" s="1" t="s">
         <v>818</v>
       </c>
@@ -13269,7 +13234,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="403" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A403" s="1" t="s">
         <v>818</v>
       </c>
@@ -13289,7 +13254,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
         <v>818</v>
       </c>
@@ -13309,7 +13274,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="405" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A405" s="1" t="s">
         <v>818</v>
       </c>
@@ -13329,7 +13294,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="406" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
         <v>818</v>
       </c>
@@ -13349,7 +13314,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="407" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
         <v>818</v>
       </c>
@@ -13369,7 +13334,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="408" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A408" s="1" t="s">
         <v>818</v>
       </c>
@@ -13389,7 +13354,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="409" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
         <v>818</v>
       </c>
@@ -13409,7 +13374,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="410" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
         <v>818</v>
       </c>
@@ -13429,7 +13394,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="411" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A411" s="1" t="s">
         <v>818</v>
       </c>
@@ -13449,7 +13414,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="412" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
         <v>818</v>
       </c>
@@ -13469,7 +13434,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="413" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
         <v>818</v>
       </c>
@@ -13489,7 +13454,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="414" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A414" s="1" t="s">
         <v>818</v>
       </c>
@@ -13509,7 +13474,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="415" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A415" s="1" t="s">
         <v>818</v>
       </c>
@@ -13529,27 +13494,27 @@
         <v>954</v>
       </c>
     </row>
-    <row r="416" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A416" s="6" t="s">
+    <row r="416" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A416" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B416" s="6" t="s">
+      <c r="B416" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C416" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D416" s="6" t="s">
+      <c r="C416" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D416" s="1" t="s">
         <v>955</v>
       </c>
-      <c r="E416" s="6" t="s">
+      <c r="E416" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="F416" s="6" t="s">
+      <c r="F416" s="1" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="417" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
         <v>818</v>
       </c>
@@ -13569,27 +13534,27 @@
         <v>960</v>
       </c>
     </row>
-    <row r="418" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A418" s="6" t="s">
+    <row r="418" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A418" s="1" t="s">
         <v>818</v>
       </c>
-      <c r="B418" s="6" t="s">
+      <c r="B418" s="1" t="s">
         <v>819</v>
       </c>
-      <c r="C418" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D418" s="6" t="s">
+      <c r="C418" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="E418" s="6" t="s">
+      <c r="E418" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="F418" s="6" t="s">
+      <c r="F418" s="1" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="419" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
         <v>818</v>
       </c>
@@ -13609,7 +13574,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="420" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
         <v>818</v>
       </c>
@@ -13629,7 +13594,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A421" s="1" t="s">
         <v>818</v>
       </c>
@@ -13649,7 +13614,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="422" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
         <v>818</v>
       </c>
@@ -13669,7 +13634,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="423" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A423" s="1" t="s">
         <v>818</v>
       </c>
@@ -13689,7 +13654,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="424" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A424" s="1" t="s">
         <v>977</v>
       </c>
@@ -13709,7 +13674,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="425" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
         <v>977</v>
       </c>
@@ -13729,7 +13694,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="426" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
         <v>977</v>
       </c>
@@ -13749,7 +13714,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="427" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A427" s="1" t="s">
         <v>977</v>
       </c>
@@ -13769,7 +13734,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="428" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
         <v>977</v>
       </c>
@@ -13789,7 +13754,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="429" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A429" s="1" t="s">
         <v>977</v>
       </c>
@@ -13809,7 +13774,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="430" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A430" s="1" t="s">
         <v>977</v>
       </c>
@@ -13829,7 +13794,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="431" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A431" s="1" t="s">
         <v>977</v>
       </c>
@@ -13849,7 +13814,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="432" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A432" s="1" t="s">
         <v>977</v>
       </c>
@@ -13869,7 +13834,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="433" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A433" s="1" t="s">
         <v>977</v>
       </c>
@@ -13889,7 +13854,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="434" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
         <v>977</v>
       </c>
@@ -13909,7 +13874,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="435" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A435" s="1" t="s">
         <v>977</v>
       </c>
@@ -13929,7 +13894,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="436" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A436" s="1" t="s">
         <v>977</v>
       </c>
@@ -13949,7 +13914,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="437" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
         <v>977</v>
       </c>
@@ -13969,7 +13934,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="438" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A438" s="1" t="s">
         <v>977</v>
       </c>
@@ -13989,7 +13954,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="439" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
         <v>977</v>
       </c>
@@ -14009,7 +13974,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="440" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
         <v>977</v>
       </c>
@@ -14029,7 +13994,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="441" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A441" s="1" t="s">
         <v>977</v>
       </c>
@@ -14049,7 +14014,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="442" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A442" s="1" t="s">
         <v>977</v>
       </c>
@@ -14069,7 +14034,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="443" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
         <v>977</v>
       </c>
@@ -14089,7 +14054,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="444" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
         <v>977</v>
       </c>
@@ -14109,7 +14074,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="445" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A445" s="1" t="s">
         <v>977</v>
       </c>
@@ -14129,7 +14094,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="446" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
         <v>977</v>
       </c>
@@ -14149,7 +14114,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="447" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A447" s="1" t="s">
         <v>977</v>
       </c>
@@ -14169,7 +14134,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="448" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A448" s="1" t="s">
         <v>977</v>
       </c>
@@ -14189,7 +14154,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="449" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A449" s="1" t="s">
         <v>977</v>
       </c>
@@ -14209,7 +14174,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="450" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A450" s="1" t="s">
         <v>977</v>
       </c>
@@ -14229,7 +14194,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="451" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
         <v>977</v>
       </c>
@@ -14249,7 +14214,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="452" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
         <v>977</v>
       </c>
@@ -14269,7 +14234,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="453" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A453" s="1" t="s">
         <v>977</v>
       </c>
@@ -14289,7 +14254,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="454" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A454" s="1" t="s">
         <v>977</v>
       </c>
@@ -14309,7 +14274,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="455" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
         <v>977</v>
       </c>
@@ -14329,7 +14294,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="456" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
         <v>977</v>
       </c>
@@ -14349,7 +14314,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="457" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A457" s="1" t="s">
         <v>977</v>
       </c>
@@ -14369,7 +14334,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="458" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
         <v>977</v>
       </c>
@@ -14389,7 +14354,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="459" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A459" s="1" t="s">
         <v>977</v>
       </c>
@@ -14409,7 +14374,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="460" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A460" s="1" t="s">
         <v>977</v>
       </c>
@@ -14429,7 +14394,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="461" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
         <v>977</v>
       </c>
@@ -14449,7 +14414,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="462" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A462" s="1" t="s">
         <v>977</v>
       </c>
@@ -14469,7 +14434,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="463" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A463" s="1" t="s">
         <v>977</v>
       </c>
@@ -14489,7 +14454,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="464" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A464" s="1" t="s">
         <v>977</v>
       </c>
@@ -14509,7 +14474,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="465" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A465" s="1" t="s">
         <v>977</v>
       </c>
@@ -14529,7 +14494,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="466" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A466" s="1" t="s">
         <v>977</v>
       </c>
@@ -14549,7 +14514,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="467" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A467" s="1" t="s">
         <v>977</v>
       </c>
@@ -14569,7 +14534,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="468" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A468" s="1" t="s">
         <v>977</v>
       </c>
@@ -14589,7 +14554,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="469" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A469" s="1" t="s">
         <v>977</v>
       </c>
@@ -14609,7 +14574,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="470" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A470" s="1" t="s">
         <v>977</v>
       </c>
@@ -14629,7 +14594,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="471" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A471" s="1" t="s">
         <v>977</v>
       </c>
@@ -14649,7 +14614,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A472" s="1" t="s">
         <v>977</v>
       </c>
@@ -14669,7 +14634,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="473" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A473" s="1" t="s">
         <v>977</v>
       </c>
@@ -14689,7 +14654,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="474" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A474" s="1" t="s">
         <v>977</v>
       </c>
@@ -14709,7 +14674,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="475" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A475" s="1" t="s">
         <v>977</v>
       </c>
@@ -14729,7 +14694,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="476" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A476" s="1" t="s">
         <v>977</v>
       </c>
@@ -14749,7 +14714,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="477" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A477" s="1" t="s">
         <v>977</v>
       </c>
@@ -14769,7 +14734,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="478" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A478" s="1" t="s">
         <v>977</v>
       </c>
@@ -14789,7 +14754,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="479" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A479" s="1" t="s">
         <v>977</v>
       </c>
@@ -14809,7 +14774,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="480" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A480" s="1" t="s">
         <v>977</v>
       </c>
@@ -14829,7 +14794,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="481" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A481" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14849,7 +14814,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="482" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A482" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14869,7 +14834,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="483" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14889,7 +14854,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="484" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A484" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14909,7 +14874,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="485" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14929,7 +14894,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="486" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A486" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14949,7 +14914,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A487" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14969,7 +14934,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="488" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A488" s="1" t="s">
         <v>1135</v>
       </c>
@@ -14989,7 +14954,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="489" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15009,7 +14974,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="490" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A490" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15029,7 +14994,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="491" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15049,7 +15014,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="492" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A492" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15069,7 +15034,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="493" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A493" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15089,7 +15054,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="494" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A494" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15109,7 +15074,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="495" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A495" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15129,7 +15094,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="496" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A496" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15149,7 +15114,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="497" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A497" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15169,7 +15134,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="498" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A498" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15189,7 +15154,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15209,7 +15174,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="500" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A500" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15229,7 +15194,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="501" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A501" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15249,7 +15214,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="502" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A502" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15269,7 +15234,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="503" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A503" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15289,7 +15254,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="504" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A504" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15309,7 +15274,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A505" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15329,7 +15294,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="506" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A506" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15349,7 +15314,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="507" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A507" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15369,7 +15334,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="508" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A508" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15389,7 +15354,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="509" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A509" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15409,7 +15374,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="510" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A510" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15429,7 +15394,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="511" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A511" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15449,7 +15414,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="512" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A512" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15469,7 +15434,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="513" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A513" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15489,7 +15454,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="514" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A514" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15509,7 +15474,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="515" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A515" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15529,7 +15494,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="516" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A516" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15549,7 +15514,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="517" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A517" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15569,7 +15534,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="518" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A518" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15589,7 +15554,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="519" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A519" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15609,7 +15574,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="520" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A520" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15629,7 +15594,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="521" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A521" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15649,7 +15614,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="522" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A522" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15669,7 +15634,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="523" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A523" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15689,7 +15654,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A524" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15709,7 +15674,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="525" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A525" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15729,7 +15694,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="526" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A526" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15749,7 +15714,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="527" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A527" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15769,7 +15734,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="528" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A528" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15789,7 +15754,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="529" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A529" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15809,7 +15774,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="530" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A530" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15829,7 +15794,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="531" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A531" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15849,7 +15814,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="532" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A532" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15869,7 +15834,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="533" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A533" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15889,7 +15854,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="534" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A534" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15909,7 +15874,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="535" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A535" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15929,7 +15894,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="536" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A536" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15949,7 +15914,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="537" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A537" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15969,7 +15934,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="538" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A538" s="1" t="s">
         <v>1135</v>
       </c>
@@ -15989,7 +15954,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="539" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A539" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16009,7 +15974,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="540" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A540" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16029,7 +15994,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="541" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A541" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16049,7 +16014,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="542" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A542" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16069,7 +16034,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="543" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A543" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16089,7 +16054,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="544" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A544" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16109,7 +16074,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="545" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A545" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16129,7 +16094,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="546" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A546" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16149,7 +16114,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="547" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A547" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16169,7 +16134,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="548" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A548" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16189,7 +16154,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="549" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A549" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16209,7 +16174,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="550" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A550" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16229,7 +16194,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="551" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A551" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16249,7 +16214,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="552" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A552" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16269,7 +16234,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="553" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A553" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16289,7 +16254,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="554" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A554" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16309,7 +16274,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="555" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A555" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16329,7 +16294,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="556" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A556" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16349,7 +16314,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="557" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A557" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16369,7 +16334,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="558" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A558" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16389,7 +16354,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="559" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A559" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16409,7 +16374,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="560" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A560" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16429,7 +16394,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="561" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A561" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16449,7 +16414,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="562" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A562" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16469,7 +16434,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="563" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A563" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16489,7 +16454,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A564" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16509,7 +16474,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A565" s="1" t="s">
         <v>1135</v>
       </c>
@@ -16529,7 +16494,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A566" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16549,7 +16514,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A567" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16569,7 +16534,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A568" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16589,7 +16554,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A569" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16609,7 +16574,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A570" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16629,7 +16594,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A571" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16649,7 +16614,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="572" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A572" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16669,7 +16634,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="573" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A573" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16689,7 +16654,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="574" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A574" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16709,7 +16674,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="575" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A575" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16729,7 +16694,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="576" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A576" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16749,7 +16714,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="577" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A577" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16769,7 +16734,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A578" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16789,7 +16754,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="579" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A579" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16809,7 +16774,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="580" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A580" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16829,7 +16794,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="581" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A581" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16849,7 +16814,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A582" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16869,7 +16834,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="583" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A583" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16889,7 +16854,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A584" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16909,7 +16874,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="585" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A585" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16929,7 +16894,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="586" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A586" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16949,7 +16914,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="587" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A587" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16969,7 +16934,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="588" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A588" s="1" t="s">
         <v>1348</v>
       </c>
@@ -16989,7 +16954,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="589" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A589" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17009,7 +16974,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="590" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A590" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17029,7 +16994,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="591" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A591" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17049,7 +17014,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="592" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A592" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17069,7 +17034,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="593" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A593" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17089,7 +17054,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A594" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17109,7 +17074,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="595" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A595" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17129,7 +17094,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="596" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A596" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17149,7 +17114,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="597" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A597" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17169,7 +17134,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="598" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A598" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17189,7 +17154,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="599" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A599" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17209,7 +17174,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="600" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A600" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17229,7 +17194,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="601" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A601" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17249,7 +17214,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="602" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A602" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17269,7 +17234,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="603" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A603" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17289,7 +17254,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A604" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17309,7 +17274,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="605" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A605" s="1" t="s">
         <v>1348</v>
       </c>
@@ -17329,7 +17294,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="606" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A606" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17349,7 +17314,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="607" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A607" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17369,7 +17334,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="608" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A608" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17389,7 +17354,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A609" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17409,7 +17374,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="610" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A610" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17429,7 +17394,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="611" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A611" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17449,7 +17414,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="612" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A612" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17469,7 +17434,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="613" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A613" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17489,7 +17454,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A614" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17509,7 +17474,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="615" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A615" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17529,7 +17494,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="616" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A616" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17549,7 +17514,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="617" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A617" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17569,7 +17534,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="618" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A618" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17589,7 +17554,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="619" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A619" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17609,7 +17574,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="620" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A620" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17629,7 +17594,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="621" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A621" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17649,7 +17614,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="622" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A622" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17669,7 +17634,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="623" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A623" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17689,7 +17654,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A624" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17709,7 +17674,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="625" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A625" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17729,7 +17694,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="626" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A626" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17749,7 +17714,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="627" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A627" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17769,7 +17734,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="628" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A628" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17789,7 +17754,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A629" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17809,7 +17774,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="630" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A630" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17829,7 +17794,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="631" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A631" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17849,7 +17814,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="632" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A632" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17869,7 +17834,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="633" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A633" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17889,7 +17854,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="634" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A634" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17909,7 +17874,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="635" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A635" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17929,7 +17894,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="636" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A636" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17949,7 +17914,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="637" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A637" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17969,7 +17934,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="638" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A638" s="1" t="s">
         <v>1432</v>
       </c>
@@ -17989,7 +17954,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="639" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A639" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18009,7 +17974,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="640" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A640" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18029,7 +17994,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="641" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A641" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18049,7 +18014,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="642" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A642" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18069,7 +18034,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="643" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A643" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18089,7 +18054,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="644" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A644" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18109,7 +18074,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="645" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A645" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18129,7 +18094,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="646" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A646" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18149,7 +18114,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="647" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A647" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18169,7 +18134,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="648" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A648" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18189,7 +18154,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="649" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A649" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18209,7 +18174,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="650" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A650" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18229,7 +18194,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="651" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A651" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18249,7 +18214,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="652" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A652" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18269,7 +18234,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="653" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A653" s="1" t="s">
         <v>1432</v>
       </c>
@@ -18289,7 +18254,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="654" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A654" s="1" t="s">
         <v>1432</v>
       </c>
